--- a/output/fit_clients/fit_round_60.xlsx
+++ b/output/fit_clients/fit_round_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7163445978.468493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003223969173344994</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.077683827019068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.930334749473226</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.077683827019068</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4575632517.524843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00499977043636824</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9119896150247851</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.55182427859694</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.069850927214076</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.55182427859694</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4936582775.642707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002984170309791296</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.418837593133053</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9531794549556301</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.418837593133053</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3384763652.042726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004518758894033662</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.698239976108262</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.819127211426375</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.698239976108262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6459059179.681495</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001799514955049988</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.454479156324685</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8447904488333084</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.454479156324685</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9204851954.449802</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001040910066369041</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.630499237379355</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8935741837330595</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.630499237379355</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5643973531.24931</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002125167499790445</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.370256286310862</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9425489750240547</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.370256286310862</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6037162154.973474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005315252507304545</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9348142399661282</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.329715364715063</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.089023719828011</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.329715364715063</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4621583519.686851</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004007517875541672</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.950006515328194</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9427512014818309</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.950006515328194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4232990872.381384</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001148030887459818</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.522612352899836</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7630847758699155</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.522612352899836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5765328882.343324</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001931700938402611</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.780289072067779</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.000898222364552</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.780289072067779</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6248615343.568553</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003925655227301542</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4959383962537188</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.469813611241364</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8167365616133109</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.469813611241364</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7386455742.389867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003111842994586527</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9110964493077911</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.969969843890432</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.056535198491453</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.969969843890432</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6433480470.582953</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005719005791844456</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.376163882721998</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.974567597054949</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.376163882721998</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6728449510.211008</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004848832111437083</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.184565334031855</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9037563173927982</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.184565334031855</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4468322446.877803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002168598533638943</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8990779832655325</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.034792554024074</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.101637184087751</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.034792554024074</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5163268826.935358</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008719750009070775</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8308987120443797</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.226362222422511</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.047845662496456</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.226362222422511</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4235932561.856182</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001674257981687633</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9261341422710391</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.761173863839538</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.090113889815518</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.761173863839538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6162271331.216928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001385484560822242</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.625212491281388</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8375708664801692</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.625212491281388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8221350930.688034</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.00454913236289037</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.827345032236892</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.837700905626374</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.827345032236892</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4420249006.668728</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003586553196477892</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.681280712194198</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7735763553709044</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.681280712194198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8927283791.168564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001422067345039537</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.304183844083562</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8279235461062335</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.304183844083562</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7522810880.899271</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00454717476742018</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.222523525410895</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9817783626414308</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.222523525410895</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5533135761.667645</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003710372991580038</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.175901145245809</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.162070711843947</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.175901145245809</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5598685518.654548</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001410040697622899</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.493156724096305</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8083172644536111</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.493156724096305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8657501676.511747</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003935333500986293</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.779117815573068</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9117365249486077</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.779117815573068</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9104602981.886244</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005086511533410229</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.005907190446852</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8944880181202683</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.005907190446852</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>8009344685.07597</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001170125671584825</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3317024997505608</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.084329789725789</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.606630579241615</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.084329789725789</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8447228155.200783</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004162701791446058</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.849249226544091</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.888837759687007</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.849249226544091</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7918015769.617069</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002590132714346438</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.734808992079296</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9408137886244293</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.734808992079296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5148214682.453946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.000889176545114253</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5313195941460638</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.402649095388137</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8135505753376155</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.402649095388137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5347255613.108838</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002098488411374896</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.368257883295274</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8417224180834439</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.368257883295274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7821798907.550036</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004228593501975879</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.007177814020013</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7359430083414527</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.007177814020013</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6783427206.166009</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001836776129086945</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.973024564038842</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9178393491919047</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.973024564038842</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5568926898.204253</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003461561634544446</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.112168625467127</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.010106807142994</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.112168625467127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4051717815.313729</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005817274596949269</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.92841566378126</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9962346687253415</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.92841566378126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4262248413.294337</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00492317685203367</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>13</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.8473652020248689</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.673244876266997</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.023896275239356</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.673244876266997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5230418219.869164</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002931480929435619</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.173600368717437</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8434677238792337</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.173600368717437</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6601319210.807073</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003469491671703791</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.169413200456229</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9753217865352671</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.169413200456229</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4570610074.145486</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00149006276179571</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.136550251190929</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.912632173250475</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.136550251190929</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>7082121183.355778</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004099000597553081</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.757861904755647</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9625616444734499</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.757861904755647</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6086023284.148779</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004960976162957534</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.098750252118212</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9112286041969103</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.098750252118212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6809656485.432454</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001964081429887567</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>14</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.781671999636934</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9191439380231046</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.781671999636934</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6052932475.980334</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001148345207503118</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.261914243295009</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9448864103698174</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.261914243295009</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7829468518.070757</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004183310631448763</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.004226636390337</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8241321473993293</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.004226636390337</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6801208689.015715</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003193381593958</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.672222655650352</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.871042180388037</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.672222655650352</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6450666625.604895</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003526814279529836</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.509693547318105</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9414793253257525</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.509693547318105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5342784112.583128</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004462121142322306</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.793634036473201</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8555533658592965</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.793634036473201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6833743614.274613</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003703684273508335</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.892496889802619</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.029494173244689</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.892496889802619</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5190825123.962902</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004308218360514265</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.3910932953740775</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.569229323866227</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.6163092251520615</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.569229323866227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6163830863.344513</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001853289142321003</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.911731178105755</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8434677238792337</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.911731178105755</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5230125163.809768</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003072180870454705</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.130613285349884</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9214225339530057</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.130613285349884</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6124333053.876538</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004153083050529953</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9899941599223613</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.497504452674224</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.055590600175666</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.497504452674224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>9089153530.814831</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002742549675009568</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.652602443373836</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8810828953625909</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.652602443373836</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6236081083.769169</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002523116352981447</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>10</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.151272063585111</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9093138802100738</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.151272063585111</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7782626443.720567</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003393544908691528</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.712556955027537</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8011429101212675</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.712556955027537</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6701728189.247972</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002186386576428</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.429375181055459</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7979411841402236</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.429375181055459</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6198595509.589922</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004051986645180346</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.941430197517598</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8854302977288685</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.941430197517598</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5260545589.908195</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003214660552016841</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.633140185592705</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8123836625419837</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.633140185592705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4643499021.261482</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004693794587913263</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.104106466455183</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9072150147828699</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.104106466455183</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4490480106.556232</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003358408148671369</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>13</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8519306741512759</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.336340311286619</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9902102517181314</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.336340311286619</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7328766376.287081</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005822084127866398</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.539695707108927</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8853380176354108</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.539695707108927</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3585388229.788114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.00442744918946196</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9142244836896815</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.07502102562215</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.06519121234022</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.07502102562215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5386279070.544241</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004863846685314117</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.310668340836763</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9924551265423633</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.310668340836763</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4745068141.235585</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003557858354521438</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.151860716199298</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9070949410820109</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.151860716199298</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6114971118.352839</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004652148819039015</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.8030420596841106</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.549747603250329</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9865631960400745</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.549747603250329</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8348968803.237859</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002583028755270754</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.52827230453365</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7101044131585234</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.52827230453365</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6108647368.562417</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001226026222043908</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.760897615454044</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9815841766116388</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.760897615454044</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6863388002.566511</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002831475501372456</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.278361553555833</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8942748777552603</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.278361553555833</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5160530079.651006</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002514788355935132</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.22728140459073</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7999863241331977</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.22728140459073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6036314170.768584</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002373793076033053</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.751973889438148</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.026129145995834</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.751973889438148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6407772899.911345</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001017095140363261</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.255555757955955</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9507764766238249</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.255555757955955</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4872748680.167061</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003923691585045273</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.051716854199222</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8754394460217407</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.051716854199222</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8208063496.648056</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004465463226258391</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.838174850552289</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8487783716948586</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.838174850552289</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6511402419.402529</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.0027385529680745</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.666710431395504</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.893269364521156</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.666710431395504</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6351557078.099936</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.0055382037477482</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.501279125478928</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9782213863042405</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.501279125478928</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5373289769.99096</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003777186716218221</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.614145749900502</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8796289865365344</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.614145749900502</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8622041824.603844</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001742132253896174</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.891988123378923</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9705072934722568</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.891988123378923</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5516066743.540768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003315674145525679</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.05269619239839967</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.874707259386629</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-0.4006255791997992</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.874707259386629</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6273740943.7613</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003369572998803522</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.387843781384814</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9615992282515646</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.387843781384814</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7740017560.586112</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005751702804176527</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.834175411934841</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.880247966450158</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.834175411934841</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10747630100.56204</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002507998422974258</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.298996673584019</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7905693449061079</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.298996673584019</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5142762646.51055</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005377283723673462</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.550738510656373</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9254039206642773</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.550738510656373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5124865299.686702</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002359086088386634</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4807112261295731</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.372844534640068</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.6817824140747697</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.372844534640068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9180805955.559225</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002386319879744472</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>13</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2328944058886857</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.01869352110668</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.4328126010782582</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.01869352110668</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3528893146.954728</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001131129684350382</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.295670358869548</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9285767392221103</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.295670358869548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8555971336.32051</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004451014698038144</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.91249716980956</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8386756226418942</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.91249716980956</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5752675234.016743</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003655285321278422</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.084629144539004</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9341615628310463</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.084629144539004</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4878486198.231771</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003154762383286849</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.908549618038517</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9320017837240547</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.908549618038517</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6879358831.356725</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003256576227728604</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.32894335931303</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8128193440568054</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.32894335931303</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4623257313.662541</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002972198834127093</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.189168006742136</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.033770655953288</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.189168006742136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5030761743.04911</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001410266021038744</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.772345165034982</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9050812058080721</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.772345165034982</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4828493397.155704</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001434842061333236</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>8</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.514418215758153</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-0.3651483716701107</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.514418215758153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5529745523.128498</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002347440021227962</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.208182312164051</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9173348075301107</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.208182312164051</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6198705483.626101</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002455579796455369</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.552299144669905</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8985887518020488</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.552299144669905</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5387991531.139565</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00414024233779169</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.001204067147742</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8713547751962571</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.001204067147742</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9054159756.123161</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00470731236568369</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.932255715429064</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8615168135411596</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.932255715429064</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3272731644.219872</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004893827233644735</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.803696062065812</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8904907271651923</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.803696062065812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5500539337.827187</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002918546945433138</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.205983926869457</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8320905159174374</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.205983926869457</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7208750936.452349</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001528669544006924</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6668461665646516</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.946204392794906</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8637582497172471</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.946204392794906</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_60.xlsx
+++ b/output/fit_clients/fit_round_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7163445978.468493</v>
+        <v>2321765948.22037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003223969173344994</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.07834177035004684</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04270580448798466</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1160883012.897119</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4575632517.524843</v>
+        <v>1697664259.534057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00499977043636824</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.147920044738372</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04852030553154741</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>848832122.8848767</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4936582775.642707</v>
+        <v>4905653811.467227</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002984170309791296</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
+        <v>0.1512653119924851</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02310692043900574</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2452826983.962866</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3384763652.042726</v>
+        <v>3678092142.684138</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004518758894033662</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08408898114780947</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04250905544854928</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1839046096.237016</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6459059179.681495</v>
+        <v>2340512645.721245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001799514955049988</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.1132545843637967</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04839400601912645</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1170256315.488888</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9204851954.449802</v>
+        <v>2048838800.885446</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001040910066369041</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.08508912247849666</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0484119108817266</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1024419456.775629</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5643973531.24931</v>
+        <v>2885746055.743632</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002125167499790445</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.1656078611241524</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03270172098168132</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1442873073.601186</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6037162154.973474</v>
+        <v>1734507590.333849</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005315252507304545</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19</v>
+        <v>0.1712550624553287</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0244566584859277</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>867253858.4823271</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4621583519.686851</v>
+        <v>5735535597.614577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004007517875541672</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1817065890509188</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04127721201874501</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2867767954.9385</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4232990872.381384</v>
+        <v>3662370826.061713</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001148030887459818</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1881458919826981</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.033738351216989</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1831185402.032995</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5765328882.343324</v>
+        <v>2910516684.027345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001931700938402611</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17</v>
+        <v>0.1427875851937714</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05068831513331484</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1455258351.707699</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6248615343.568553</v>
+        <v>4003562862.427063</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003925655227301542</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
+        <v>0.07569513364433454</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02434351554245846</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2001781485.836447</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7386455742.389867</v>
+        <v>2705789858.741427</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003111842994586527</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14</v>
+        <v>0.161476721482321</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03733180930232434</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1352894985.001982</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6433480470.582953</v>
+        <v>1238832534.25181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005719005791844456</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17</v>
+        <v>0.06828045335348591</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04494665954077545</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>619416293.3109933</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6728449510.211008</v>
+        <v>2487130518.11809</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004848832111437083</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19</v>
+        <v>0.110808031268982</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.047251580341466</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1243565290.911063</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4527821426.300936</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1350116610973456</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03793309393306903</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4468322446.877803</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.002168598533638943</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2263910721.573578</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5163268826.935358</v>
+        <v>2560745290.152527</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008719750009070775</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
+        <v>0.123142308509144</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0326489157375528</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1280372707.054849</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4235932561.856182</v>
+        <v>1012365545.433311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001674257981687633</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1548510518635707</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01927591174615011</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>506182804.8440349</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6162271331.216928</v>
+        <v>1812779884.734505</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001385484560822242</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
+        <v>0.1612178080955891</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01959036329015713</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>906389988.5605605</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8221350930.688034</v>
+        <v>2606285021.292302</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00454913236289037</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11</v>
+        <v>0.07202698478501124</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0420403114812388</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1303142488.523893</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4420249006.668728</v>
+        <v>3516216648.402555</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003586553196477892</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1404183717111689</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05482762009299887</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1758108354.710031</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8927283791.168564</v>
+        <v>996539156.8449601</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001422067345039537</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+        <v>0.1423658303266352</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04084318988945932</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>498269649.0696689</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7522810880.899271</v>
+        <v>3050608972.321648</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00454717476742018</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.0902301898497922</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03412158728048997</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>15</v>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1525304517.858585</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5533135761.667645</v>
+        <v>1166676128.120131</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003710372991580038</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.1077810512106327</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02190323927484361</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>583338089.5821143</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5598685518.654548</v>
+        <v>963552439.3438394</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001410040697622899</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07522460477727685</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0345802763657781</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>481776182.6646611</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8657501676.511747</v>
+        <v>3424749379.473513</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003935333500986293</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>16</v>
+        <v>0.1578570709573926</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0233772852275695</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1712374728.34003</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9104602981.886244</v>
+        <v>2706577970.613107</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005086511533410229</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15</v>
+        <v>0.1253341229236362</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03267213096840483</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1353288970.944425</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>8009344685.07597</v>
+        <v>5898766277.838127</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001170125671584825</v>
-      </c>
-      <c r="G29" t="b">
+        <v>0.1298570842412326</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03097850122683673</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>16</v>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2949383024.018997</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8447228155.200783</v>
+        <v>2186623926.408774</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004162701791446058</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19</v>
+        <v>0.1155828628677422</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02581041676786689</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1093312021.809074</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7918015769.617069</v>
+        <v>974114699.9463153</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002590132714346438</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
+        <v>0.1007371685430208</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04583522381111473</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>487057354.456053</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5148214682.453946</v>
+        <v>1262973292.913764</v>
       </c>
       <c r="F32" t="n">
-        <v>0.000889176545114253</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1084941454039024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03554685450127629</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>631486665.5792295</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5347255613.108838</v>
+        <v>2674470082.70755</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002098488411374896</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.1701182851280171</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05038947428983252</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1337235064.587351</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7821798907.550036</v>
+        <v>1476844904.804042</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004228593501975879</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>19</v>
+        <v>0.09312359780389527</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0284134820197876</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>738422411.8982103</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6783427206.166009</v>
+        <v>1084694982.253745</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001836776129086945</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>15</v>
+        <v>0.09716408651646737</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03944568879868483</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>542347491.0216851</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5568926898.204253</v>
+        <v>2824718405.371962</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003461561634544446</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>17</v>
+        <v>0.1285062841960728</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01904731962086271</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1412359198.544283</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>493</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2880381164.482876</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1023382047931924</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02742269149827225</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="n">
-        <v>573</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4051717815.313729</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.005817274596949269</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1440190730.521765</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4262248413.294337</v>
+        <v>1598179822.656839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00492317685203367</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09133743249175201</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.028392327691507</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>799089946.5927964</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5230418219.869164</v>
+        <v>1670929881.920095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002931480929435619</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
+        <v>0.1646680041459193</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02767507281376837</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>835464985.3344624</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6601319210.807073</v>
+        <v>1119869874.046171</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003469491671703791</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>17</v>
+        <v>0.1316074888925379</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03667504865940364</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>559934998.2527387</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4570610074.145486</v>
+        <v>2359015616.452979</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00149006276179571</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>17</v>
+        <v>0.1325959567074965</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02890485308622634</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1179507847.172253</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>7082121183.355778</v>
+        <v>2854005303.402194</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004099000597553081</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>14</v>
+        <v>0.08895626888956103</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03345203687149703</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1427002601.943878</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6086023284.148779</v>
+        <v>2310218810.759695</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004960976162957534</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.1602785789236679</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02550700946037079</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>20</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1155109472.992923</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6809656485.432454</v>
+        <v>2038734014.862428</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001964081429887567</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.08608367620903261</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03484471996677083</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1019367121.381569</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6052932475.980334</v>
+        <v>1651775346.030548</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001148345207503118</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1357277050050376</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04849784906608434</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>825887628.6889833</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7829468518.070757</v>
+        <v>5350297485.015226</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004183310631448763</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
+        <v>0.1631430529274582</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0484607937418137</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2675148789.236537</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6801208689.015715</v>
+        <v>4628820951.737046</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003193381593958</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1925018475267533</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05612578060422985</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2314410510.557338</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6450666625.604895</v>
+        <v>4215599988.833999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003526814279529836</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11</v>
+        <v>0.07371728909567336</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03036201611383605</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2107800016.158848</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5342784112.583128</v>
+        <v>1683088221.249164</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004462121142322306</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.147514224291159</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03380120756428835</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>841544114.0644795</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6833743614.274613</v>
+        <v>2598814899.362101</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003703684273508335</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1745233175561307</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03700655930365349</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1299407537.970346</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5190825123.962902</v>
+        <v>1242546830.794181</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004308218360514265</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1343016512769685</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0388224390091735</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>621273459.9501324</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6163830863.344513</v>
+        <v>4845505671.953819</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001853289142321003</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>15</v>
+        <v>0.1144064448629568</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04880961602257138</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2422752842.572061</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5230125163.809768</v>
+        <v>3017370320.385398</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003072180870454705</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1595903536727814</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02472257258273837</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1508685191.334695</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>501</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4283127336.253639</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1427416325956803</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03307254959564895</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" t="n">
-        <v>591</v>
-      </c>
-      <c r="E54" t="n">
-        <v>6124333053.876538</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.004153083050529953</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>16</v>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2141563754.309269</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>9089153530.814831</v>
+        <v>4231660277.388267</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002742549675009568</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>19</v>
+        <v>0.1901341154030154</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02262165560156519</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2115830123.711507</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6236081083.769169</v>
+        <v>1853396950.672346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002523116352981447</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
+        <v>0.1361669388951139</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05684143715283021</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>926698465.0890963</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7782626443.720567</v>
+        <v>3223289955.178693</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003393544908691528</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1330233697326536</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01879487232929205</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1611645000.64069</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6701728189.247972</v>
+        <v>1700695511.158394</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002186386576428</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>14</v>
+        <v>0.1821103140265311</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0296060314362757</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>850347768.2866977</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6198595509.589922</v>
+        <v>4328258486.858952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004051986645180346</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.08474647450879891</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04541757093823003</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2164129203.406395</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5260545589.908195</v>
+        <v>3230673812.308558</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003214660552016841</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1293837115405085</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02578855108426759</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1615337000.572914</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4643499021.261482</v>
+        <v>2928588235.097816</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004693794587913263</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+        <v>0.119432276825204</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02040641921157139</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1464294104.634144</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4490480106.556232</v>
+        <v>1871718927.219979</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003358408148671369</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1705789379969776</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04740377142005501</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>935859502.3355569</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7328766376.287081</v>
+        <v>3964434491.16627</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005822084127866398</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+        <v>0.1026582546368794</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03401683037343704</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1982217309.437659</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3585388229.788114</v>
+        <v>3719308352.720732</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00442744918946196</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1608773557416419</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02261208463527669</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1859654192.350869</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5386279070.544241</v>
+        <v>4540508863.929632</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004863846685314117</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1051663372611698</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02638892048187133</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2270254418.153464</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4745068141.235585</v>
+        <v>5515936647.168473</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003557858354521438</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1600037797319311</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04457434513434715</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2757968378.261934</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6114971118.352839</v>
+        <v>2491059053.674033</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004652148819039015</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.08194846427914451</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.047873677108431</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1245529588.093934</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8348968803.237859</v>
+        <v>4197438776.157872</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002583028755270754</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>12</v>
+        <v>0.1163887703345389</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0370977645060695</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2098719395.731753</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6108647368.562417</v>
+        <v>1952759222.873171</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001226026222043908</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1301967280945684</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04106732448347351</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>976379610.1596574</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6863388002.566511</v>
+        <v>2243412885.440543</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002831475501372456</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>16</v>
+        <v>0.08757854958906339</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03707084860470317</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1121706370.341179</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5160530079.651006</v>
+        <v>4025454302.358703</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002514788355935132</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1147370279047731</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03126310465246503</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2012727184.026622</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6036314170.768584</v>
+        <v>1843455936.323541</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002373793076033053</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>12</v>
+        <v>0.06907647735481959</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04775363207967407</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>921727939.6246823</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6407772899.911345</v>
+        <v>2665252922.721519</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001017095140363261</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.08591927399447132</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04948338880797758</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>13</v>
+      <c r="I73" t="n">
+        <v>23</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1332626487.840422</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4872748680.167061</v>
+        <v>2750595917.62093</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003923691585045273</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13</v>
+        <v>0.1827582965539526</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03035147776608717</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1375298045.644989</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8208063496.648056</v>
+        <v>2215507677.40654</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004465463226258391</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>11</v>
+        <v>0.1509774872128035</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02625467569287612</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1107753782.566515</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6511402419.402529</v>
+        <v>4134402093.965758</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0027385529680745</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>12</v>
+        <v>0.119483702918513</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03298418971838971</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2067201037.195361</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6351557078.099936</v>
+        <v>1794027323.172244</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0055382037477482</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.132671850068194</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02295147256416947</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>897013692.6069075</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5373289769.99096</v>
+        <v>3204914720.372678</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003777186716218221</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>12</v>
+        <v>0.09783654083322828</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05084031495362613</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1602457382.740732</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8622041824.603844</v>
+        <v>1244084363.826492</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001742132253896174</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>12</v>
+        <v>0.1551793239955036</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03277059433026339</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>622042171.2494177</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5516066743.540768</v>
+        <v>3883906688.979845</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003315674145525679</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>19</v>
+        <v>0.1075711195450616</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03043711624962868</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1941953338.078517</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6273740943.7613</v>
+        <v>3247635070.563046</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003369572998803522</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.09598529217728168</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02078622679275385</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>13</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1623817470.364357</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7740017560.586112</v>
+        <v>4359800149.283487</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005751702804176527</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.1973085066687593</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02527417341197044</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>10</v>
+      <c r="I82" t="n">
+        <v>21</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2179900094.220258</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10747630100.56204</v>
+        <v>1521162428.317006</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002507998422974258</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1224372738617796</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03832878166245571</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>760581139.7206252</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5142762646.51055</v>
+        <v>1851225822.74945</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005377283723673462</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>16</v>
+        <v>0.1097631992028567</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04820874966784317</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>925612938.0561357</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5124865299.686702</v>
+        <v>3421228999.468667</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002359086088386634</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1824437302387576</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03565403019356572</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1710614606.272673</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9180805955.559225</v>
+        <v>2311416816.362154</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002386319879744472</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.168239975522322</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02223609369654274</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1155708479.013453</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3528893146.954728</v>
+        <v>1251653201.481608</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001131129684350382</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1483463018113733</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04019753596560864</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>625826669.4507653</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8555971336.32051</v>
+        <v>2969264723.069516</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004451014698038144</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.1615331366037286</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03790873459108461</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="n">
-        <v>13</v>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1484632388.827234</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5752675234.016743</v>
+        <v>2335522222.69649</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003655285321278422</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
+        <v>0.1397389999694082</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02679693833874167</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1167761198.048813</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4878486198.231771</v>
+        <v>1951573201.365258</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003154762383286849</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.122050695877867</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05536404049913386</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>975786661.9485838</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6879358831.356725</v>
+        <v>1866793700.927941</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003256576227728604</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>18</v>
+        <v>0.1874533197453168</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04453198073806539</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>933396840.3738438</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4623257313.662541</v>
+        <v>2531302396.296765</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002972198834127093</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1075521813872333</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03179209374635052</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1265651184.354336</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5030761743.04911</v>
+        <v>4504166003.136824</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001410266021038744</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>22</v>
+        <v>0.09831792325597706</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04840056129735505</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2252082969.460741</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4828493397.155704</v>
+        <v>2040712440.121339</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001434842061333236</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>18</v>
+        <v>0.1372135008158837</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03117132087917773</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1020356223.64059</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5529745523.128498</v>
+        <v>2821403849.925488</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002347440021227962</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>15</v>
+        <v>0.1036010817812524</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04023562575148785</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1410701937.578522</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6198705483.626101</v>
+        <v>2304534203.018147</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002455579796455369</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>16</v>
+        <v>0.1377432663255469</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0364185707587189</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1152267055.857443</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5387991531.139565</v>
+        <v>3692832557.848563</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00414024233779169</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
+        <v>0.1394077322253326</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02801679845255034</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1846416310.498642</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9054159756.123161</v>
+        <v>3518161574.174649</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00470731236568369</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>23</v>
+        <v>0.1233239176634977</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02795116358229149</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1759080806.809989</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3272731644.219872</v>
+        <v>2896052992.514203</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004893827233644735</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1194395272531931</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02882589057091529</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1448026474.602657</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5500539337.827187</v>
+        <v>4146543762.140522</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002918546945433138</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1388451138931786</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02177391738146473</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>18</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2073271963.295134</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7208750936.452349</v>
+        <v>2532658154.896657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001528669544006924</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>19</v>
+        <v>0.1569325025252692</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04367085344600818</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1266329104.635089</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_60.xlsx
+++ b/output/fit_clients/fit_round_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2321765948.22037</v>
+        <v>2405012851.547572</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07834177035004684</v>
+        <v>0.08278770488929568</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04270580448798466</v>
+        <v>0.03392902659917858</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1160883012.897119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1697664259.534057</v>
+        <v>1671166609.611001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.147920044738372</v>
+        <v>0.1587394735280843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04852030553154741</v>
+        <v>0.03757010181377061</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>848832122.8848767</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4905653811.467227</v>
+        <v>4755135536.288149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1512653119924851</v>
+        <v>0.16170787179182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02310692043900574</v>
+        <v>0.02660199913932218</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2452826983.962866</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3678092142.684138</v>
+        <v>2624485270.794264</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08408898114780947</v>
+        <v>0.07944002354575394</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04250905544854928</v>
+        <v>0.03903077710905489</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1839046096.237016</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2340512645.721245</v>
+        <v>2797539551.71929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132545843637967</v>
+        <v>0.1422131406254849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04839400601912645</v>
+        <v>0.04614293545963732</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1170256315.488888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2048838800.885446</v>
+        <v>2652645270.64784</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08508912247849666</v>
+        <v>0.08718195204536056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0484119108817266</v>
+        <v>0.03628641605031804</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1024419456.775629</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2885746055.743632</v>
+        <v>3525474426.504756</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1656078611241524</v>
+        <v>0.1746870695957217</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03270172098168132</v>
+        <v>0.02657921469575139</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1442873073.601186</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1734507590.333849</v>
+        <v>1461230600.323786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1712550624553287</v>
+        <v>0.175814453580558</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0244566584859277</v>
+        <v>0.03254234096666229</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>867253858.4823271</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5735535597.614577</v>
+        <v>4407506276.797279</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1817065890509188</v>
+        <v>0.1722459406586614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04127721201874501</v>
+        <v>0.03631631997240134</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2867767954.9385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3662370826.061713</v>
+        <v>4183706965.377063</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1881458919826981</v>
+        <v>0.132136590417347</v>
       </c>
       <c r="G11" t="n">
-        <v>0.033738351216989</v>
+        <v>0.04353905420605537</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1831185402.032995</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2910516684.027345</v>
+        <v>3133698198.239153</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1427875851937714</v>
+        <v>0.182075442605792</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05068831513331484</v>
+        <v>0.05087426762256336</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1455258351.707699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4003562862.427063</v>
+        <v>3436781700.855501</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07569513364433454</v>
+        <v>0.08352557846843711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02434351554245846</v>
+        <v>0.02815320285521054</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2001781485.836447</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2705789858.741427</v>
+        <v>2842508721.408514</v>
       </c>
       <c r="F14" t="n">
-        <v>0.161476721482321</v>
+        <v>0.1255411509185546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03733180930232434</v>
+        <v>0.03586956532139452</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1352894985.001982</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1238832534.25181</v>
+        <v>1776473911.496081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06828045335348591</v>
+        <v>0.06987734066339869</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04494665954077545</v>
+        <v>0.04025985090690772</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>619416293.3109933</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2487130518.11809</v>
+        <v>2292420008.454688</v>
       </c>
       <c r="F16" t="n">
-        <v>0.110808031268982</v>
+        <v>0.1105848158917846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.047251580341466</v>
+        <v>0.0456557467130175</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1243565290.911063</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4527821426.300936</v>
+        <v>3314969546.478816</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1350116610973456</v>
+        <v>0.15852573864721</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03793309393306903</v>
+        <v>0.04574621668056465</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2263910721.573578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2560745290.152527</v>
+        <v>3221575179.859993</v>
       </c>
       <c r="F18" t="n">
-        <v>0.123142308509144</v>
+        <v>0.153074743428188</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0326489157375528</v>
+        <v>0.02857919367265854</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1280372707.054849</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1012365545.433311</v>
+        <v>942407444.2243359</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1548510518635707</v>
+        <v>0.1574212941435719</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01927591174615011</v>
+        <v>0.01983656605351796</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>506182804.8440349</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1812779884.734505</v>
+        <v>2088502281.671174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1612178080955891</v>
+        <v>0.1402175159361495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01959036329015713</v>
+        <v>0.02837270173976035</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>906389988.5605605</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2606285021.292302</v>
+        <v>2563977288.082247</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07202698478501124</v>
+        <v>0.06550899936235569</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0420403114812388</v>
+        <v>0.04039975780593111</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1303142488.523893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3516216648.402555</v>
+        <v>2730305563.718587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1404183717111689</v>
+        <v>0.119805007694188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05482762009299887</v>
+        <v>0.04791469286923025</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1758108354.710031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>996539156.8449601</v>
+        <v>1329377849.952355</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1423658303266352</v>
+        <v>0.1432582055031685</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04084318988945932</v>
+        <v>0.03686818928396935</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>498269649.0696689</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3050608972.321648</v>
+        <v>3401158557.175606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0902301898497922</v>
+        <v>0.1064915520101284</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03412158728048997</v>
+        <v>0.02748706692022414</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1525304517.858585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166676128.120131</v>
+        <v>1469364005.833871</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1077810512106327</v>
+        <v>0.0994549400393922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02190323927484361</v>
+        <v>0.02994044521407916</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>583338089.5821143</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>963552439.3438394</v>
+        <v>1318191298.991867</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07522460477727685</v>
+        <v>0.1147359209110547</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0345802763657781</v>
+        <v>0.027145117956529</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>481776182.6646611</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3424749379.473513</v>
+        <v>4724009273.651869</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1578570709573926</v>
+        <v>0.100281520908767</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0233772852275695</v>
+        <v>0.01662477178210563</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1712374728.34003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2706577970.613107</v>
+        <v>3170118937.639679</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1253341229236362</v>
+        <v>0.1501896944470728</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03267213096840483</v>
+        <v>0.03884922721119255</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>20</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1353288970.944425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5898766277.838127</v>
+        <v>5357149518.470118</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1298570842412326</v>
+        <v>0.1483601504005071</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03097850122683673</v>
+        <v>0.0415962586507113</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>27</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2949383024.018997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2186623926.408774</v>
+        <v>1478517538.248476</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1155828628677422</v>
+        <v>0.1160900643584849</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02581041676786689</v>
+        <v>0.03811593263386016</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1093312021.809074</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>974114699.9463153</v>
+        <v>1493808561.301842</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1007371685430208</v>
+        <v>0.1041717134590975</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04583522381111473</v>
+        <v>0.04705557048530452</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>487057354.456053</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1262973292.913764</v>
+        <v>1300406310.418487</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1084941454039024</v>
+        <v>0.08615645148608621</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03554685450127629</v>
+        <v>0.03611750872230802</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>631486665.5792295</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2674470082.70755</v>
+        <v>2623045812.917172</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1701182851280171</v>
+        <v>0.1680822045521499</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05038947428983252</v>
+        <v>0.05366215721344254</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>17</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1337235064.587351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1476844904.804042</v>
+        <v>1487479262.535529</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09312359780389527</v>
+        <v>0.09825225565011045</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0284134820197876</v>
+        <v>0.021032296310453</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>738422411.8982103</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1084694982.253745</v>
+        <v>881201158.2747866</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09716408651646737</v>
+        <v>0.08585111763651108</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03944568879868483</v>
+        <v>0.04044016080164825</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>542347491.0216851</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2824718405.371962</v>
+        <v>2086669882.997152</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1285062841960728</v>
+        <v>0.1232803445894293</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01904731962086271</v>
+        <v>0.02743502492978649</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1412359198.544283</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2880381164.482876</v>
+        <v>2089574572.917667</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1023382047931924</v>
+        <v>0.1077547671216632</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02742269149827225</v>
+        <v>0.02682315404074314</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1440190730.521765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1598179822.656839</v>
+        <v>1772356780.198527</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09133743249175201</v>
+        <v>0.09965041309168549</v>
       </c>
       <c r="G38" t="n">
-        <v>0.028392327691507</v>
+        <v>0.02490520727297544</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>799089946.5927964</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1670929881.920095</v>
+        <v>1893779919.905732</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1646680041459193</v>
+        <v>0.1804845156969385</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02767507281376837</v>
+        <v>0.02099428657105003</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>835464985.3344624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1119869874.046171</v>
+        <v>1821370993.072242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1316074888925379</v>
+        <v>0.1232035757343079</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03667504865940364</v>
+        <v>0.04205904536986007</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>559934998.2527387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2359015616.452979</v>
+        <v>2045665805.049342</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1325959567074965</v>
+        <v>0.1395368102866722</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02890485308622634</v>
+        <v>0.0452544679047868</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1179507847.172253</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2854005303.402194</v>
+        <v>4083092250.472365</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08895626888956103</v>
+        <v>0.1195010232452299</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03345203687149703</v>
+        <v>0.04168149436740634</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1427002601.943878</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2310218810.759695</v>
+        <v>2035340794.416717</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1602785789236679</v>
+        <v>0.1808431647226428</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02550700946037079</v>
+        <v>0.01970809094369134</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>20</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1155109472.992923</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2038734014.862428</v>
+        <v>1443463536.896478</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08608367620903261</v>
+        <v>0.08365462566119279</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03484471996677083</v>
+        <v>0.02420556767954147</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1019367121.381569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1651775346.030548</v>
+        <v>1637280272.121912</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1357277050050376</v>
+        <v>0.1387614321368876</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04849784906608434</v>
+        <v>0.04250747831954561</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>825887628.6889833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5350297485.015226</v>
+        <v>3512025073.335695</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1631430529274582</v>
+        <v>0.163908874006483</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0484607937418137</v>
+        <v>0.03799101475222174</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2675148789.236537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4628820951.737046</v>
+        <v>4623022644.859066</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1925018475267533</v>
+        <v>0.1930035464575439</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05612578060422985</v>
+        <v>0.0431883909152592</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2314410510.557338</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4215599988.833999</v>
+        <v>4418751524.985752</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07371728909567336</v>
+        <v>0.08944903550391475</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03036201611383605</v>
+        <v>0.02990464745378678</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>21</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2107800016.158848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1683088221.249164</v>
+        <v>1701433922.594431</v>
       </c>
       <c r="F49" t="n">
-        <v>0.147514224291159</v>
+        <v>0.1657064336909186</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03380120756428835</v>
+        <v>0.03045850252777408</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>841544114.0644795</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2598814899.362101</v>
+        <v>2735677510.269646</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1745233175561307</v>
+        <v>0.1598503721661768</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03700655930365349</v>
+        <v>0.03245393157347944</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>20</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1299407537.970346</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1242546830.794181</v>
+        <v>980902788.1339039</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1343016512769685</v>
+        <v>0.1401728818063313</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0388224390091735</v>
+        <v>0.04802239550714756</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621273459.9501324</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4845505671.953819</v>
+        <v>3832432408.003169</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1144064448629568</v>
+        <v>0.09910800331564706</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04880961602257138</v>
+        <v>0.05344305678385809</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>25</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2422752842.572061</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3017370320.385398</v>
+        <v>2724188128.725864</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1595903536727814</v>
+        <v>0.1442973247994307</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02472257258273837</v>
+        <v>0.03249967259191488</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1508685191.334695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4283127336.253639</v>
+        <v>4316503055.906172</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1427416325956803</v>
+        <v>0.1430527492150758</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03307254959564895</v>
+        <v>0.04548694080239196</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2141563754.309269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4231660277.388267</v>
+        <v>4626923815.328036</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1901341154030154</v>
+        <v>0.2244266224999249</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02262165560156519</v>
+        <v>0.02940874199092135</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2115830123.711507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1853396950.672346</v>
+        <v>1307939791.624411</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1361669388951139</v>
+        <v>0.1134624106050258</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05684143715283021</v>
+        <v>0.04273802874975383</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>926698465.0890963</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3223289955.178693</v>
+        <v>2953995003.575882</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1330233697326536</v>
+        <v>0.1593413368805067</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01879487232929205</v>
+        <v>0.01687655067380227</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>19</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1611645000.64069</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1700695511.158394</v>
+        <v>1751742101.580088</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1821103140265311</v>
+        <v>0.1690801089336871</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0296060314362757</v>
+        <v>0.03919843135610074</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>850347768.2866977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4328258486.858952</v>
+        <v>4738310153.023041</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08474647450879891</v>
+        <v>0.07965184015202365</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04541757093823003</v>
+        <v>0.03677200514738548</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2164129203.406395</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3230673812.308558</v>
+        <v>3758821938.072758</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1293837115405085</v>
+        <v>0.1576431369407752</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02578855108426759</v>
+        <v>0.02545246737951538</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1615337000.572914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2928588235.097816</v>
+        <v>2890421346.235659</v>
       </c>
       <c r="F61" t="n">
-        <v>0.119432276825204</v>
+        <v>0.1550956256011037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02040641921157139</v>
+        <v>0.03029849201482928</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>21</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1464294104.634144</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1871718927.219979</v>
+        <v>1947781534.047038</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1705789379969776</v>
+        <v>0.1616149579863254</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04740377142005501</v>
+        <v>0.04618752775496961</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>935859502.3355569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3964434491.16627</v>
+        <v>4291812408.823791</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026582546368794</v>
+        <v>0.0971686400118898</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03401683037343704</v>
+        <v>0.03552610223550422</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1982217309.437659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3719308352.720732</v>
+        <v>5336473029.429598</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1608773557416419</v>
+        <v>0.1764788328059896</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02261208463527669</v>
+        <v>0.03190288701938732</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>19</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1859654192.350869</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4540508863.929632</v>
+        <v>5064173051.866843</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1051663372611698</v>
+        <v>0.1588370393477101</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02638892048187133</v>
+        <v>0.03042933633201488</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2270254418.153464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5515936647.168473</v>
+        <v>3924064878.1434</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1600037797319311</v>
+        <v>0.14648467149594</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04457434513434715</v>
+        <v>0.03223027169246262</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2757968378.261934</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2491059053.674033</v>
+        <v>3414981218.490704</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08194846427914451</v>
+        <v>0.0736376187395958</v>
       </c>
       <c r="G67" t="n">
-        <v>0.047873677108431</v>
+        <v>0.03624269456426196</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1245529588.093934</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4197438776.157872</v>
+        <v>5782651484.802793</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1163887703345389</v>
+        <v>0.1470648561975003</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0370977645060695</v>
+        <v>0.04769415988431754</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2098719395.731753</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1952759222.873171</v>
+        <v>2100914699.231567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1301967280945684</v>
+        <v>0.1235489454565814</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04106732448347351</v>
+        <v>0.03742204308116169</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>976379610.1596574</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2243412885.440543</v>
+        <v>3019472148.870635</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08757854958906339</v>
+        <v>0.07192668917665927</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03707084860470317</v>
+        <v>0.0381753902594144</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>17</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1121706370.341179</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4025454302.358703</v>
+        <v>3791843843.218181</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1147370279047731</v>
+        <v>0.1583036552258751</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03126310465246503</v>
+        <v>0.02482604069180503</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>22</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2012727184.026622</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1843455936.323541</v>
+        <v>1489635872.750281</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06907647735481959</v>
+        <v>0.08329809853525544</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04775363207967407</v>
+        <v>0.05179831173862081</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>921727939.6246823</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2665252922.721519</v>
+        <v>2362885258.216548</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08591927399447132</v>
+        <v>0.09795607191821276</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04948338880797758</v>
+        <v>0.03280352304533296</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>23</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1332626487.840422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2750595917.62093</v>
+        <v>2957450619.468693</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1827582965539526</v>
+        <v>0.1283108116661191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03035147776608717</v>
+        <v>0.02154066057082131</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1375298045.644989</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2215507677.40654</v>
+        <v>2279033303.579818</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1509774872128035</v>
+        <v>0.1452632230689058</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02625467569287612</v>
+        <v>0.02515327868298887</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1107753782.566515</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4134402093.965758</v>
+        <v>4368140635.039902</v>
       </c>
       <c r="F76" t="n">
-        <v>0.119483702918513</v>
+        <v>0.1037119709820569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03298418971838971</v>
+        <v>0.02103694600465435</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2067201037.195361</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1794027323.172244</v>
+        <v>1961643574.11423</v>
       </c>
       <c r="F77" t="n">
-        <v>0.132671850068194</v>
+        <v>0.1262784059283822</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02295147256416947</v>
+        <v>0.02438655511701155</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>897013692.6069075</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3204914720.372678</v>
+        <v>4074231831.902416</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09783654083322828</v>
+        <v>0.1247201162877086</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05084031495362613</v>
+        <v>0.04249402321947919</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>21</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1602457382.740732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1244084363.826492</v>
+        <v>1529446967.233038</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1551793239955036</v>
+        <v>0.1747285411118633</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03277059433026339</v>
+        <v>0.03885373442708907</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>622042171.2494177</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3883906688.979845</v>
+        <v>4531647802.40098</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1075711195450616</v>
+        <v>0.06934359349307843</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03043711624962868</v>
+        <v>0.02627703722499765</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1941953338.078517</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3247635070.563046</v>
+        <v>4068319581.22675</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09598529217728168</v>
+        <v>0.1237020079828896</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02078622679275385</v>
+        <v>0.02415984949152841</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1623817470.364357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4359800149.283487</v>
+        <v>5428369762.076014</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1973085066687593</v>
+        <v>0.1470745818809669</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02527417341197044</v>
+        <v>0.01879396180364656</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>21</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2179900094.220258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1521162428.317006</v>
+        <v>2480108086.818565</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1224372738617796</v>
+        <v>0.1152112183869386</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03832878166245571</v>
+        <v>0.04184887989415115</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>760581139.7206252</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1851225822.74945</v>
+        <v>1646204224.453428</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1097631992028567</v>
+        <v>0.1190633466808388</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04820874966784317</v>
+        <v>0.04863938582419642</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>925612938.0561357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3421228999.468667</v>
+        <v>2674626192.685741</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1824437302387576</v>
+        <v>0.1736097223141827</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03565403019356572</v>
+        <v>0.05194257146483029</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1710614606.272673</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2311416816.362154</v>
+        <v>2513325276.049818</v>
       </c>
       <c r="F86" t="n">
-        <v>0.168239975522322</v>
+        <v>0.1346709481681488</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02223609369654274</v>
+        <v>0.01702680546286044</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1155708479.013453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1251653201.481608</v>
+        <v>1033258962.781989</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1483463018113733</v>
+        <v>0.133270754013097</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04019753596560864</v>
+        <v>0.0443186014206647</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>625826669.4507653</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2969264723.069516</v>
+        <v>3629424445.085421</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1615331366037286</v>
+        <v>0.1565801191388917</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03790873459108461</v>
+        <v>0.02951696755739665</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>23</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1484632388.827234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2335522222.69649</v>
+        <v>3351457202.370565</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1397389999694082</v>
+        <v>0.1419412013793451</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02679693833874167</v>
+        <v>0.02824274173554585</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>20</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1167761198.048813</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1951573201.365258</v>
+        <v>1441611354.691712</v>
       </c>
       <c r="F90" t="n">
-        <v>0.122050695877867</v>
+        <v>0.107403912019106</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05536404049913386</v>
+        <v>0.04379950840855612</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>975786661.9485838</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1866793700.927941</v>
+        <v>1323309490.145978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1874533197453168</v>
+        <v>0.1826657306038683</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04453198073806539</v>
+        <v>0.03854925112224418</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>933396840.3738438</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2531302396.296765</v>
+        <v>2704403654.325633</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1075521813872333</v>
+        <v>0.1010825283816543</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03179209374635052</v>
+        <v>0.03959746524380105</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1265651184.354336</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4504166003.136824</v>
+        <v>4481627043.648863</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09831792325597706</v>
+        <v>0.1395768934672397</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04840056129735505</v>
+        <v>0.03493478179991204</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>18</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2252082969.460741</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2040712440.121339</v>
+        <v>1716098064.96883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372135008158837</v>
+        <v>0.1289572320168338</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03117132087917773</v>
+        <v>0.03112834569943083</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1020356223.64059</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2821403849.925488</v>
+        <v>2941409515.161008</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1036010817812524</v>
+        <v>0.1326237729314593</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04023562575148785</v>
+        <v>0.04062429762433692</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1410701937.578522</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2304534203.018147</v>
+        <v>1934341969.448483</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1377432663255469</v>
+        <v>0.1129485517831094</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0364185707587189</v>
+        <v>0.03724429365316125</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1152267055.857443</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3692832557.848563</v>
+        <v>3479482768.159781</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1394077322253326</v>
+        <v>0.1597958041207638</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02801679845255034</v>
+        <v>0.02104370114551306</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1846416310.498642</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3518161574.174649</v>
+        <v>3652815058.303316</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1233239176634977</v>
+        <v>0.1032457833327142</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02795116358229149</v>
+        <v>0.03043610365032072</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1759080806.809989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2896052992.514203</v>
+        <v>2334207933.302441</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1194395272531931</v>
+        <v>0.1012897344071982</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02882589057091529</v>
+        <v>0.02326052806940224</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1448026474.602657</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4146543762.140522</v>
+        <v>4377118966.278348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1388451138931786</v>
+        <v>0.1722568015239497</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02177391738146473</v>
+        <v>0.0276772284230632</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>18</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2073271963.295134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2532658154.896657</v>
+        <v>3298497730.139991</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1569325025252692</v>
+        <v>0.2022819087076038</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04367085344600818</v>
+        <v>0.04302967373725802</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1266329104.635089</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_60.xlsx
+++ b/output/fit_clients/fit_round_60.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2405012851.547572</v>
+        <v>1842912765.376792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08278770488929568</v>
+        <v>0.09010321484925245</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03392902659917858</v>
+        <v>0.0395816613742121</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1671166609.611001</v>
+        <v>1988687911.777609</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587394735280843</v>
+        <v>0.1576459577736607</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03757010181377061</v>
+        <v>0.04488484591171497</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4755135536.288149</v>
+        <v>4063287108.520401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16170787179182</v>
+        <v>0.1425487784683338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02660199913932218</v>
+        <v>0.03419829702983763</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2624485270.794264</v>
+        <v>2944434628.536493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07944002354575394</v>
+        <v>0.09489707466893825</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03903077710905489</v>
+        <v>0.03878543040487311</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2797539551.71929</v>
+        <v>1916329366.745003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1422131406254849</v>
+        <v>0.09759417187232229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04614293545963732</v>
+        <v>0.04147357450397186</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2652645270.64784</v>
+        <v>2205405839.803069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08718195204536056</v>
+        <v>0.07727188493778282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03628641605031804</v>
+        <v>0.03062327245100872</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3525474426.504756</v>
+        <v>3087982437.920735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1746870695957217</v>
+        <v>0.1753941470508937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02657921469575139</v>
+        <v>0.03325129411081278</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1461230600.323786</v>
+        <v>1491096994.423958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.175814453580558</v>
+        <v>0.1634795860918902</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03254234096666229</v>
+        <v>0.03069962107322509</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4407506276.797279</v>
+        <v>5370212667.84768</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1722459406586614</v>
+        <v>0.1466469565101272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03631631997240134</v>
+        <v>0.03600489409474027</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4183706965.377063</v>
+        <v>2974501613.009455</v>
       </c>
       <c r="F11" t="n">
-        <v>0.132136590417347</v>
+        <v>0.1427784150013627</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04353905420605537</v>
+        <v>0.03561444052459566</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3133698198.239153</v>
+        <v>2106902974.934808</v>
       </c>
       <c r="F12" t="n">
-        <v>0.182075442605792</v>
+        <v>0.1854589332564762</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05087426762256336</v>
+        <v>0.04626899720244947</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3436781700.855501</v>
+        <v>3944528103.908119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08352557846843711</v>
+        <v>0.09509573829979208</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02815320285521054</v>
+        <v>0.02924589832465611</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2842508721.408514</v>
+        <v>2806669238.22732</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1255411509185546</v>
+        <v>0.1606348462622198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03586956532139452</v>
+        <v>0.03840258192017062</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1776473911.496081</v>
+        <v>1636314459.613076</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06987734066339869</v>
+        <v>0.1047239049301952</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04025985090690772</v>
+        <v>0.03403258762704103</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2292420008.454688</v>
+        <v>1881412750.325665</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1105848158917846</v>
+        <v>0.09716688600697673</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0456557467130175</v>
+        <v>0.03654812265868155</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3314969546.478816</v>
+        <v>4614443368.355545</v>
       </c>
       <c r="F17" t="n">
-        <v>0.15852573864721</v>
+        <v>0.1649060963590769</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04574621668056465</v>
+        <v>0.04764122883671137</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3221575179.859993</v>
+        <v>3440826038.022053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.153074743428188</v>
+        <v>0.165954892259662</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02857919367265854</v>
+        <v>0.02732409553993102</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>942407444.2243359</v>
+        <v>1340507721.368538</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1574212941435719</v>
+        <v>0.1835560410291081</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01983656605351796</v>
+        <v>0.02163398990356236</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2088502281.671174</v>
+        <v>2162433583.359276</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1402175159361495</v>
+        <v>0.1321258773274208</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02837270173976035</v>
+        <v>0.02030184785657518</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2563977288.082247</v>
+        <v>2131684308.93661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06550899936235569</v>
+        <v>0.08877383513382556</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04039975780593111</v>
+        <v>0.04586534849709512</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2730305563.718587</v>
+        <v>3007152797.052309</v>
       </c>
       <c r="F22" t="n">
-        <v>0.119805007694188</v>
+        <v>0.1395341422365193</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04791469286923025</v>
+        <v>0.04451545396993209</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1329377849.952355</v>
+        <v>1068875223.56011</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1432582055031685</v>
+        <v>0.1297996125331151</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03686818928396935</v>
+        <v>0.05417171358584304</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3401158557.175606</v>
+        <v>3761692873.838945</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1064915520101284</v>
+        <v>0.11849912026638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02748706692022414</v>
+        <v>0.02885770962731691</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1469364005.833871</v>
+        <v>908416053.0551324</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0994549400393922</v>
+        <v>0.08836340828285305</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02994044521407916</v>
+        <v>0.02058323610924841</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318191298.991867</v>
+        <v>1009902866.904058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1147359209110547</v>
+        <v>0.1222692384378807</v>
       </c>
       <c r="G26" t="n">
-        <v>0.027145117956529</v>
+        <v>0.0261343152344117</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4724009273.651869</v>
+        <v>4477779142.137712</v>
       </c>
       <c r="F27" t="n">
-        <v>0.100281520908767</v>
+        <v>0.1348727999075843</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01662477178210563</v>
+        <v>0.01704812904693876</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3170118937.639679</v>
+        <v>3420072865.844147</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1501896944470728</v>
+        <v>0.146268645586767</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03884922721119255</v>
+        <v>0.04186704952004421</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5357149518.470118</v>
+        <v>3770261338.619282</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1483601504005071</v>
+        <v>0.1053312218745109</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0415962586507113</v>
+        <v>0.04232645656666915</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1478517538.248476</v>
+        <v>2233353493.346157</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1160900643584849</v>
+        <v>0.1340345029246036</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03811593263386016</v>
+        <v>0.0291205695580103</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1493808561.301842</v>
+        <v>1061430487.090059</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1041717134590975</v>
+        <v>0.09909014849286386</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04705557048530452</v>
+        <v>0.04534884035013262</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1300406310.418487</v>
+        <v>1322282276.606172</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08615645148608621</v>
+        <v>0.1152234521183828</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03611750872230802</v>
+        <v>0.03869256287672525</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2623045812.917172</v>
+        <v>2172941921.195953</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1680822045521499</v>
+        <v>0.208617939605427</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05366215721344254</v>
+        <v>0.05021073413069017</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1487479262.535529</v>
+        <v>1124549700.275573</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09825225565011045</v>
+        <v>0.1198816143407131</v>
       </c>
       <c r="G34" t="n">
-        <v>0.021032296310453</v>
+        <v>0.02776607573746064</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>881201158.2747866</v>
+        <v>1245681524.677143</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08585111763651108</v>
+        <v>0.09641987976061048</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04044016080164825</v>
+        <v>0.04383510978679628</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2086669882.997152</v>
+        <v>2497739013.154572</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1232803445894293</v>
+        <v>0.1166811051152536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02743502492978649</v>
+        <v>0.01759433014800564</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2089574572.917667</v>
+        <v>1910216558.553938</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1077547671216632</v>
+        <v>0.1026831782012848</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02682315404074314</v>
+        <v>0.03082703549013532</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1772356780.198527</v>
+        <v>1496343652.480539</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09965041309168549</v>
+        <v>0.09037108133988041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02490520727297544</v>
+        <v>0.0329917188943327</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1893779919.905732</v>
+        <v>1358390903.297661</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1804845156969385</v>
+        <v>0.1169310880244346</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02099428657105003</v>
+        <v>0.02138884904990187</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1821370993.072242</v>
+        <v>1387586470.117571</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232035757343079</v>
+        <v>0.1006041785779405</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04205904536986007</v>
+        <v>0.04455096105851047</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2045665805.049342</v>
+        <v>1950820992.494768</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1395368102866722</v>
+        <v>0.1589470110068609</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0452544679047868</v>
+        <v>0.03624327453079922</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4083092250.472365</v>
+        <v>4343150109.576627</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1195010232452299</v>
+        <v>0.1260132743474834</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04168149436740634</v>
+        <v>0.04187844646102996</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2035340794.416717</v>
+        <v>2357450848.952619</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1808431647226428</v>
+        <v>0.1334802596463915</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01970809094369134</v>
+        <v>0.02269626023034856</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1443463536.896478</v>
+        <v>2198552580.199723</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08365462566119279</v>
+        <v>0.09135998322365703</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02420556767954147</v>
+        <v>0.03553117714693944</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1637280272.121912</v>
+        <v>2531743090.621023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1387614321368876</v>
+        <v>0.1734594808297597</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04250747831954561</v>
+        <v>0.03518865747095797</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3512025073.335695</v>
+        <v>4087925014.33139</v>
       </c>
       <c r="F46" t="n">
-        <v>0.163908874006483</v>
+        <v>0.1777993747144304</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03799101475222174</v>
+        <v>0.05647529051471601</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4623022644.859066</v>
+        <v>4514353756.710979</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1930035464575439</v>
+        <v>0.1618869470883621</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0431883909152592</v>
+        <v>0.04086078047003904</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4418751524.985752</v>
+        <v>4252245750.245594</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08944903550391475</v>
+        <v>0.07078562698818444</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02990464745378678</v>
+        <v>0.03783938359764553</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1701433922.594431</v>
+        <v>1629325981.888353</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1657064336909186</v>
+        <v>0.1533305474878585</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03045850252777408</v>
+        <v>0.03554937654754192</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2735677510.269646</v>
+        <v>2567336674.401788</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1598503721661768</v>
+        <v>0.1436370969549938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03245393157347944</v>
+        <v>0.03778076528252664</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>980902788.1339039</v>
+        <v>1221712046.409738</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1401728818063313</v>
+        <v>0.1504283850080404</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04802239550714756</v>
+        <v>0.03653258667078267</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3832432408.003169</v>
+        <v>3692683140.90807</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09910800331564706</v>
+        <v>0.09787080983948804</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05344305678385809</v>
+        <v>0.05377562502734487</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2724188128.725864</v>
+        <v>3151818609.642601</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1442973247994307</v>
+        <v>0.1575020260415201</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03249967259191488</v>
+        <v>0.02476207099956935</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4316503055.906172</v>
+        <v>4029519027.961272</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1430527492150758</v>
+        <v>0.1303613447418609</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04548694080239196</v>
+        <v>0.04760292258991463</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4626923815.328036</v>
+        <v>3687374703.861902</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2244266224999249</v>
+        <v>0.1789095693257655</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02940874199092135</v>
+        <v>0.02107250617781061</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1307939791.624411</v>
+        <v>1179778377.845482</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1134624106050258</v>
+        <v>0.1161350188824234</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04273802874975383</v>
+        <v>0.0425437751368546</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2953995003.575882</v>
+        <v>3105516662.751216</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1593413368805067</v>
+        <v>0.113888524530717</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01687655067380227</v>
+        <v>0.016912335877415</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1751742101.580088</v>
+        <v>1858727325.92107</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1690801089336871</v>
+        <v>0.1697268020300947</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03919843135610074</v>
+        <v>0.03857312612912853</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4738310153.023041</v>
+        <v>4593394562.95021</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07965184015202365</v>
+        <v>0.104509004730575</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03677200514738548</v>
+        <v>0.04302591039210869</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3758821938.072758</v>
+        <v>2679650066.487182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1576431369407752</v>
+        <v>0.149364100138158</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02545246737951538</v>
+        <v>0.02151980119215233</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2890421346.235659</v>
+        <v>2933479770.510779</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1550956256011037</v>
+        <v>0.1207990224724097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03029849201482928</v>
+        <v>0.02982277406479923</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1947781534.047038</v>
+        <v>1976270450.26699</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1616149579863254</v>
+        <v>0.1179194025453618</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04618752775496961</v>
+        <v>0.04751255575877218</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4291812408.823791</v>
+        <v>3509256471.582363</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0971686400118898</v>
+        <v>0.06816121539785529</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03552610223550422</v>
+        <v>0.03785621995094073</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5336473029.429598</v>
+        <v>3873734307.304313</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1764788328059896</v>
+        <v>0.1216641059854992</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03190288701938732</v>
+        <v>0.02404369567596506</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5064173051.866843</v>
+        <v>4784336682.967551</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1588370393477101</v>
+        <v>0.133150210951234</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03042933633201488</v>
+        <v>0.01958982399682443</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3924064878.1434</v>
+        <v>3666674875.996973</v>
       </c>
       <c r="F66" t="n">
-        <v>0.14648467149594</v>
+        <v>0.1127677606903671</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03223027169246262</v>
+        <v>0.03667411820326095</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3414981218.490704</v>
+        <v>2284232983.016958</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0736376187395958</v>
+        <v>0.1013430053031512</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03624269456426196</v>
+        <v>0.04278027046002558</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5782651484.802793</v>
+        <v>4844546782.711634</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1470648561975003</v>
+        <v>0.1499692818826827</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04769415988431754</v>
+        <v>0.03162933865096026</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2100914699.231567</v>
+        <v>2159432554.823372</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1235489454565814</v>
+        <v>0.1214397657223766</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03742204308116169</v>
+        <v>0.03945168076809188</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3019472148.870635</v>
+        <v>3340639149.881858</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07192668917665927</v>
+        <v>0.07747673529550128</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0381753902594144</v>
+        <v>0.03681233329874411</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3791843843.218181</v>
+        <v>4407768239.097335</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1583036552258751</v>
+        <v>0.1410648440304192</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02482604069180503</v>
+        <v>0.02170432382832004</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1489635872.750281</v>
+        <v>1916687048.55394</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08329809853525544</v>
+        <v>0.08409907472289914</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05179831173862081</v>
+        <v>0.05324074958223422</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2362885258.216548</v>
+        <v>3044614689.498568</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09795607191821276</v>
+        <v>0.08654400573408252</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03280352304533296</v>
+        <v>0.05212391126425564</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2957450619.468693</v>
+        <v>3902125475.357747</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1283108116661191</v>
+        <v>0.1175012507086458</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02154066057082131</v>
+        <v>0.02962699902102319</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2279033303.579818</v>
+        <v>2029849582.962493</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1452632230689058</v>
+        <v>0.1547513154744272</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02515327868298887</v>
+        <v>0.02286184639214704</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4368140635.039902</v>
+        <v>5065813733.614005</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1037119709820569</v>
+        <v>0.1209632810347351</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02103694600465435</v>
+        <v>0.03155749827105075</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1961643574.11423</v>
+        <v>1813724176.627325</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1262784059283822</v>
+        <v>0.1527830202961975</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02438655511701155</v>
+        <v>0.02157688436707779</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4074231831.902416</v>
+        <v>3857607134.444092</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1247201162877086</v>
+        <v>0.13519994878879</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04249402321947919</v>
+        <v>0.0347312533262935</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1529446967.233038</v>
+        <v>1884145309.538013</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1747285411118633</v>
+        <v>0.1205570764215997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03885373442708907</v>
+        <v>0.0356430890250663</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4531647802.40098</v>
+        <v>4326659429.266983</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06934359349307843</v>
+        <v>0.07418266716799785</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02627703722499765</v>
+        <v>0.03495505070074757</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4068319581.22675</v>
+        <v>4299369631.205157</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1237020079828896</v>
+        <v>0.1128514993917112</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02415984949152841</v>
+        <v>0.02019141049109542</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5428369762.076014</v>
+        <v>3608921754.511425</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1470745818809669</v>
+        <v>0.1579106709051791</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01879396180364656</v>
+        <v>0.02452775445239061</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2480108086.818565</v>
+        <v>2207511713.178662</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1152112183869386</v>
+        <v>0.1301346804972205</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04184887989415115</v>
+        <v>0.03098907095149976</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1646204224.453428</v>
+        <v>2354434840.402524</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1190633466808388</v>
+        <v>0.1138733532337251</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04863938582419642</v>
+        <v>0.03790349743383364</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2674626192.685741</v>
+        <v>3037469790.385758</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1736097223141827</v>
+        <v>0.1788279973387127</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05194257146483029</v>
+        <v>0.04251583112322607</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2513325276.049818</v>
+        <v>2405840800.171802</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1346709481681488</v>
+        <v>0.1269508515127342</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01702680546286044</v>
+        <v>0.01913505071601194</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1033258962.781989</v>
+        <v>1224011077.487449</v>
       </c>
       <c r="F87" t="n">
-        <v>0.133270754013097</v>
+        <v>0.1742095641991784</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0443186014206647</v>
+        <v>0.02813545050781288</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3629424445.085421</v>
+        <v>3699082737.911023</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1565801191388917</v>
+        <v>0.16730358361952</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02951696755739665</v>
+        <v>0.02435153016652352</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3351457202.370565</v>
+        <v>3268288632.209152</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1419412013793451</v>
+        <v>0.1372798097084697</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02824274173554585</v>
+        <v>0.02987603470352998</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1441611354.691712</v>
+        <v>2045065853.958694</v>
       </c>
       <c r="F90" t="n">
-        <v>0.107403912019106</v>
+        <v>0.1270252415912762</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04379950840855612</v>
+        <v>0.04956702836580024</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1323309490.145978</v>
+        <v>1916072415.631463</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1826657306038683</v>
+        <v>0.1387828855505389</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03854925112224418</v>
+        <v>0.05293423274883294</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2704403654.325633</v>
+        <v>2861429527.148283</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1010825283816543</v>
+        <v>0.07929227906061317</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03959746524380105</v>
+        <v>0.03160315656583825</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4481627043.648863</v>
+        <v>3240645612.114536</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1395768934672397</v>
+        <v>0.123489586851839</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03493478179991204</v>
+        <v>0.03947875983299488</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1716098064.96883</v>
+        <v>2403530449.544761</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1289572320168338</v>
+        <v>0.1478746633596941</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03112834569943083</v>
+        <v>0.03392279955850173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2941409515.161008</v>
+        <v>2848387109.361906</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1326237729314593</v>
+        <v>0.1218395638247235</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04062429762433692</v>
+        <v>0.04426271407346117</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1934341969.448483</v>
+        <v>1520125508.0688</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1129485517831094</v>
+        <v>0.0941382071768405</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03724429365316125</v>
+        <v>0.04642526010907732</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3479482768.159781</v>
+        <v>5178516432.525564</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1597958041207638</v>
+        <v>0.114040738330907</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02104370114551306</v>
+        <v>0.02237786299149248</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3652815058.303316</v>
+        <v>2595653320.341801</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1032457833327142</v>
+        <v>0.09261759944676622</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03043610365032072</v>
+        <v>0.02594711873499374</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2334207933.302441</v>
+        <v>2463562043.985025</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1012897344071982</v>
+        <v>0.1332882614846958</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02326052806940224</v>
+        <v>0.02456372694971098</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4377118966.278348</v>
+        <v>4447267702.503049</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1722568015239497</v>
+        <v>0.1523754526192077</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0276772284230632</v>
+        <v>0.02060990701113967</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3298497730.139991</v>
+        <v>3266644510.549374</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2022819087076038</v>
+        <v>0.2183976719225982</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04302967373725802</v>
+        <v>0.0566764728292935</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_60.xlsx
+++ b/output/fit_clients/fit_round_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1842912765.376792</v>
+        <v>2224482803.446976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09010321484925245</v>
+        <v>0.07983837970888008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0395816613742121</v>
+        <v>0.04136695308072116</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1988687911.777609</v>
+        <v>2222162482.863303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1576459577736607</v>
+        <v>0.1493429918073097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04488484591171497</v>
+        <v>0.03258046368367423</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4063287108.520401</v>
+        <v>4511843012.04262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1425487784683338</v>
+        <v>0.1345813364192876</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03419829702983763</v>
+        <v>0.03074679285563792</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59</v>
+      </c>
+      <c r="K4" t="n">
+        <v>196.8686853472107</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2944434628.536493</v>
+        <v>4220437045.88396</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09489707466893825</v>
+        <v>0.0765792391520346</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03878543040487311</v>
+        <v>0.04255323635112742</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1916329366.745003</v>
+        <v>2838312875.488218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09759417187232229</v>
+        <v>0.09842374426827663</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04147357450397186</v>
+        <v>0.03685179879441759</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2205405839.803069</v>
+        <v>2592025204.214854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07727188493778282</v>
+        <v>0.07775299105317565</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03062327245100872</v>
+        <v>0.04699688717807351</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3087982437.920735</v>
+        <v>2940974988.147255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1753941470508937</v>
+        <v>0.17429714931919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03325129411081278</v>
+        <v>0.02111507615965994</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59</v>
+      </c>
+      <c r="K8" t="n">
+        <v>79.74441180058147</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1491096994.423958</v>
+        <v>2039147880.077388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1634795860918902</v>
+        <v>0.1610745839574597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03069962107322509</v>
+        <v>0.03033604175103901</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5370212667.84768</v>
+        <v>4013713906.679838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1466469565101272</v>
+        <v>0.1351272271496534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03600489409474027</v>
+        <v>0.03313961913604727</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>56</v>
+      </c>
+      <c r="J10" t="n">
+        <v>59</v>
+      </c>
+      <c r="K10" t="n">
+        <v>174.3730259796309</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2974501613.009455</v>
+        <v>3421413310.148124</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1427784150013627</v>
+        <v>0.1825520125569096</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03561444052459566</v>
+        <v>0.03863999816748829</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27</v>
+      </c>
+      <c r="J11" t="n">
+        <v>59</v>
+      </c>
+      <c r="K11" t="n">
+        <v>124.1513991104653</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2106902974.934808</v>
+        <v>2459202402.204654</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1854589332564762</v>
+        <v>0.1827566479045052</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04626899720244947</v>
+        <v>0.04433170389163864</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3944528103.908119</v>
+        <v>4490700345.273733</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09509573829979208</v>
+        <v>0.07949378494860469</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02924589832465611</v>
+        <v>0.02198252689477468</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>60</v>
+      </c>
+      <c r="K13" t="n">
+        <v>197.0162135881119</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2806669238.22732</v>
+        <v>2966472855.172134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1606348462622198</v>
+        <v>0.1284305602646692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03840258192017062</v>
+        <v>0.04323285178459198</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1636314459.613076</v>
+        <v>1423904101.568395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1047239049301952</v>
+        <v>0.1021592242447268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03403258762704103</v>
+        <v>0.04452630504467408</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1881412750.325665</v>
+        <v>1992847856.975881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09716688600697673</v>
+        <v>0.1044663383362056</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03654812265868155</v>
+        <v>0.04395852870123883</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4614443368.355545</v>
+        <v>4154878601.26527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1649060963590769</v>
+        <v>0.1459599476370462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04764122883671137</v>
+        <v>0.0447335181358915</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>59</v>
+      </c>
+      <c r="K17" t="n">
+        <v>153.4180943555101</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3440826038.022053</v>
+        <v>3267660803.009455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.165954892259662</v>
+        <v>0.1683508736777012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02732409553993102</v>
+        <v>0.02818637064268665</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>58</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1340507721.368538</v>
+        <v>1327158944.037876</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1835560410291081</v>
+        <v>0.1770421879613706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02163398990356236</v>
+        <v>0.022589376504389</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2162433583.359276</v>
+        <v>2721354018.726647</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1321258773274208</v>
+        <v>0.149452267662487</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02030184785657518</v>
+        <v>0.02547356431298113</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2131684308.93661</v>
+        <v>2384212838.90757</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08877383513382556</v>
+        <v>0.100753967896562</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04586534849709512</v>
+        <v>0.03099687215278877</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3007152797.052309</v>
+        <v>2965186618.182146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1395341422365193</v>
+        <v>0.08869639158344898</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04451545396993209</v>
+        <v>0.03651520295434583</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>57</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1068875223.56011</v>
+        <v>948488119.9443903</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1297996125331151</v>
+        <v>0.1612606144629088</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05417171358584304</v>
+        <v>0.04466972398061382</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3761692873.838945</v>
+        <v>3278522007.716943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.11849912026638</v>
+        <v>0.10875367220308</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02885770962731691</v>
+        <v>0.03372630305888221</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>57</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>908416053.0551324</v>
+        <v>1279736875.502037</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08836340828285305</v>
+        <v>0.08185940597681911</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02058323610924841</v>
+        <v>0.03024538488979158</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1009902866.904058</v>
+        <v>1164684388.046881</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1222692384378807</v>
+        <v>0.09607560694739094</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0261343152344117</v>
+        <v>0.03571967151624549</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4477779142.137712</v>
+        <v>3324795295.701795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1348727999075843</v>
+        <v>0.1538389772392091</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01704812904693876</v>
+        <v>0.02286755966343694</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>23</v>
+      </c>
+      <c r="J27" t="n">
+        <v>60</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3420072865.844147</v>
+        <v>3793455933.778675</v>
       </c>
       <c r="F28" t="n">
-        <v>0.146268645586767</v>
+        <v>0.1363945064809816</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04186704952004421</v>
+        <v>0.03051162208201773</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>60</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3770261338.619282</v>
+        <v>5538826535.267064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1053312218745109</v>
+        <v>0.1409072278850013</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04232645656666915</v>
+        <v>0.03597100035002264</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>60</v>
+      </c>
+      <c r="K29" t="n">
+        <v>226.4940164227619</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2233353493.346157</v>
+        <v>2157161962.577048</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1340345029246036</v>
+        <v>0.106005153615418</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0291205695580103</v>
+        <v>0.03714495942998419</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1061430487.090059</v>
+        <v>1164182607.435336</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09909014849286386</v>
+        <v>0.07497157802303968</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04534884035013262</v>
+        <v>0.03191320263479795</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1322282276.606172</v>
+        <v>1751313900.395589</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1152234521183828</v>
+        <v>0.08090523595351615</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03869256287672525</v>
+        <v>0.02790635609357837</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2172941921.195953</v>
+        <v>2703221020.605836</v>
       </c>
       <c r="F33" t="n">
-        <v>0.208617939605427</v>
+        <v>0.1464040678542622</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05021073413069017</v>
+        <v>0.04184440697865125</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1124549700.275573</v>
+        <v>1389338552.786751</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1198816143407131</v>
+        <v>0.08909909870611862</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02776607573746064</v>
+        <v>0.02329190984967173</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1245681524.677143</v>
+        <v>1261156989.055897</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09641987976061048</v>
+        <v>0.08762948386988628</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04383510978679628</v>
+        <v>0.04074020174109792</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2497739013.154572</v>
+        <v>2309750951.424043</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1166811051152536</v>
+        <v>0.1509666751364327</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01759433014800564</v>
+        <v>0.02262675593122303</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1910216558.553938</v>
+        <v>2636659268.454932</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026831782012848</v>
+        <v>0.1049318061994904</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03082703549013532</v>
+        <v>0.02662563847094666</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1496343652.480539</v>
+        <v>1862235293.274245</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09037108133988041</v>
+        <v>0.07645607781677745</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0329917188943327</v>
+        <v>0.03637663359088425</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1358390903.297661</v>
+        <v>1801394045.909828</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169310880244346</v>
+        <v>0.1489202133148135</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02138884904990187</v>
+        <v>0.02781635320101737</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1387586470.117571</v>
+        <v>1634835147.591608</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1006041785779405</v>
+        <v>0.1494764309814279</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04455096105851047</v>
+        <v>0.04714706807659289</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1950820992.494768</v>
+        <v>1969632413.474911</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1589470110068609</v>
+        <v>0.1082911265648003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03624327453079922</v>
+        <v>0.03403213416671932</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4343150109.576627</v>
+        <v>4109181078.41658</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1260132743474834</v>
+        <v>0.08816956485086885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04187844646102996</v>
+        <v>0.03240227257246152</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22</v>
+      </c>
+      <c r="J42" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2357450848.952619</v>
+        <v>2942731171.369275</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1334802596463915</v>
+        <v>0.1305003215929241</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02269626023034856</v>
+        <v>0.01594999027133857</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2198552580.199723</v>
+        <v>2059924917.3789</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09135998322365703</v>
+        <v>0.09567192994933241</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03553117714693944</v>
+        <v>0.02335105297301716</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2531743090.621023</v>
+        <v>2182141948.793372</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1734594808297597</v>
+        <v>0.1898030838354034</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03518865747095797</v>
+        <v>0.03949978580795562</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4087925014.33139</v>
+        <v>5615821387.28781</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1777993747144304</v>
+        <v>0.1132336501229614</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05647529051471601</v>
+        <v>0.05969341345192438</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>60</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4514353756.710979</v>
+        <v>3127338345.217204</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1618869470883621</v>
+        <v>0.170508992333034</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04086078047003904</v>
+        <v>0.05677831567985645</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>59</v>
+      </c>
+      <c r="K47" t="n">
+        <v>80.88392190638868</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4252245750.245594</v>
+        <v>3068055474.161448</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07078562698818444</v>
+        <v>0.09955754241638168</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03783938359764553</v>
+        <v>0.02459513107357986</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>59</v>
+      </c>
+      <c r="K48" t="n">
+        <v>90.31946740274206</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1629325981.888353</v>
+        <v>1301062678.465563</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1533305474878585</v>
+        <v>0.151971551848772</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03554937654754192</v>
+        <v>0.03546060328522637</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2567336674.401788</v>
+        <v>3946587468.856571</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1436370969549938</v>
+        <v>0.1361822531718281</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03778076528252664</v>
+        <v>0.03777749489288617</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>60</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1221712046.409738</v>
+        <v>1165234621.075179</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1504283850080404</v>
+        <v>0.1355254311174534</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03653258667078267</v>
+        <v>0.04744918875634591</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3692683140.90807</v>
+        <v>5044702016.450618</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09787080983948804</v>
+        <v>0.09358880194197354</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05377562502734487</v>
+        <v>0.03861030079178639</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>48</v>
+      </c>
+      <c r="J52" t="n">
+        <v>60</v>
+      </c>
+      <c r="K52" t="n">
+        <v>206.1831206622724</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3151818609.642601</v>
+        <v>3767366489.354018</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1575020260415201</v>
+        <v>0.1761149498515432</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02476207099956935</v>
+        <v>0.02166256544712098</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="n">
+        <v>126.8164442056678</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4029519027.961272</v>
+        <v>3288638095.736496</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1303613447418609</v>
+        <v>0.1301050172799367</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04760292258991463</v>
+        <v>0.03399175457649812</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>58</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3687374703.861902</v>
+        <v>3448603688.159102</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1789095693257655</v>
+        <v>0.1974564516503412</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02107250617781061</v>
+        <v>0.02583022579585488</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>60</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1179778377.845482</v>
+        <v>1335915661.030677</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1161350188824234</v>
+        <v>0.102799668646312</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0425437751368546</v>
+        <v>0.04141943670457059</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3105516662.751216</v>
+        <v>4360549372.401059</v>
       </c>
       <c r="F57" t="n">
-        <v>0.113888524530717</v>
+        <v>0.1419931550804952</v>
       </c>
       <c r="G57" t="n">
-        <v>0.016912335877415</v>
+        <v>0.02740629553097871</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>60</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1858727325.92107</v>
+        <v>1741780839.167069</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1697268020300947</v>
+        <v>0.1485249139948005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03857312612912853</v>
+        <v>0.0243298137681206</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4593394562.95021</v>
+        <v>5015990468.580661</v>
       </c>
       <c r="F59" t="n">
-        <v>0.104509004730575</v>
+        <v>0.08176203557155486</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04302591039210869</v>
+        <v>0.0419116338813143</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29</v>
+      </c>
+      <c r="J59" t="n">
+        <v>59</v>
+      </c>
+      <c r="K59" t="n">
+        <v>171.8958409958763</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2679650066.487182</v>
+        <v>2910859916.962788</v>
       </c>
       <c r="F60" t="n">
-        <v>0.149364100138158</v>
+        <v>0.1454037119208625</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02151980119215233</v>
+        <v>0.03197700776829311</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2933479770.510779</v>
+        <v>2245358687.557504</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1207990224724097</v>
+        <v>0.1518822843670734</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02982277406479923</v>
+        <v>0.03099480602890399</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1976270450.26699</v>
+        <v>1279911286.533749</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1179194025453618</v>
+        <v>0.1447519970835288</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04751255575877218</v>
+        <v>0.03087978153735267</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3509256471.582363</v>
+        <v>5120995537.481224</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06816121539785529</v>
+        <v>0.07977592837791059</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03785621995094073</v>
+        <v>0.0335543819302339</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>29</v>
+      </c>
+      <c r="J63" t="n">
+        <v>60</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3873734307.304313</v>
+        <v>4190356943.063277</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1216641059854992</v>
+        <v>0.1428028795376598</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02404369567596506</v>
+        <v>0.02909640305167168</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>29</v>
+      </c>
+      <c r="J64" t="n">
+        <v>60</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4784336682.967551</v>
+        <v>5216544203.396443</v>
       </c>
       <c r="F65" t="n">
-        <v>0.133150210951234</v>
+        <v>0.124777021055957</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01958982399682443</v>
+        <v>0.02612502457396543</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>47</v>
+      </c>
+      <c r="J65" t="n">
+        <v>60</v>
+      </c>
+      <c r="K65" t="n">
+        <v>198.1102834386713</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3666674875.996973</v>
+        <v>5121217150.612357</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1127677606903671</v>
+        <v>0.1063937969753597</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03667411820326095</v>
+        <v>0.03508827850576856</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>29</v>
+      </c>
+      <c r="J66" t="n">
+        <v>60</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2284232983.016958</v>
+        <v>2305386475.009346</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1013430053031512</v>
+        <v>0.09099651369749098</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04278027046002558</v>
+        <v>0.04340966810138041</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4844546782.711634</v>
+        <v>5861061812.347839</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1499692818826827</v>
+        <v>0.1116455034578957</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03162933865096026</v>
+        <v>0.04988851676159062</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30</v>
+      </c>
+      <c r="J68" t="n">
+        <v>59</v>
+      </c>
+      <c r="K68" t="n">
+        <v>186.2090204613704</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2159432554.823372</v>
+        <v>2209699220.547551</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1214397657223766</v>
+        <v>0.1824102918403411</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03945168076809188</v>
+        <v>0.05032876420407836</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3340639149.881858</v>
+        <v>2480469789.379224</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07747673529550128</v>
+        <v>0.09550352172496163</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03681233329874411</v>
+        <v>0.04430076052295576</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4407768239.097335</v>
+        <v>5280534044.606253</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1410648440304192</v>
+        <v>0.1542045191339032</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02170432382832004</v>
+        <v>0.02977648838349524</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>49</v>
+      </c>
+      <c r="J71" t="n">
+        <v>60</v>
+      </c>
+      <c r="K71" t="n">
+        <v>198.7955347571652</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1916687048.55394</v>
+        <v>1977022744.345181</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08409907472289914</v>
+        <v>0.07709928589080792</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05324074958223422</v>
+        <v>0.03517005527611278</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3044614689.498568</v>
+        <v>2733997511.208961</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08654400573408252</v>
+        <v>0.1125373766642038</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05212391126425564</v>
+        <v>0.0417903914203845</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3902125475.357747</v>
+        <v>2463389347.573957</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1175012507086458</v>
+        <v>0.1782343646942328</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02962699902102319</v>
+        <v>0.03097294893478127</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2029849582.962493</v>
+        <v>1581282657.778491</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1547513154744272</v>
+        <v>0.112168843431067</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02286184639214704</v>
+        <v>0.03173414344287631</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5065813733.614005</v>
+        <v>4610593976.667617</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1209632810347351</v>
+        <v>0.1086113923074459</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03155749827105075</v>
+        <v>0.02982624642130131</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>28</v>
+      </c>
+      <c r="J76" t="n">
+        <v>59</v>
+      </c>
+      <c r="K76" t="n">
+        <v>160.0200233460978</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1813724176.627325</v>
+        <v>2116366993.634201</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1527830202961975</v>
+        <v>0.1566690859843748</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02157688436707779</v>
+        <v>0.02386411493886012</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3857607134.444092</v>
+        <v>3716745256.253703</v>
       </c>
       <c r="F78" t="n">
-        <v>0.13519994878879</v>
+        <v>0.1259698636505038</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0347312533262935</v>
+        <v>0.05593948983907771</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>60</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1884145309.538013</v>
+        <v>1890157206.224412</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1205570764215997</v>
+        <v>0.1286821963899041</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0356430890250663</v>
+        <v>0.03801053544720787</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4326659429.266983</v>
+        <v>4635243356.68925</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07418266716799785</v>
+        <v>0.0813697841131322</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03495505070074757</v>
+        <v>0.03728596892047049</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29</v>
+      </c>
+      <c r="J80" t="n">
+        <v>59</v>
+      </c>
+      <c r="K80" t="n">
+        <v>155.1148537902129</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4299369631.205157</v>
+        <v>4544765019.966027</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1128514993917112</v>
+        <v>0.1260477084997807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02019141049109542</v>
+        <v>0.02829314580666129</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>27</v>
+      </c>
+      <c r="J81" t="n">
+        <v>59</v>
+      </c>
+      <c r="K81" t="n">
+        <v>157.4692209982244</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3608921754.511425</v>
+        <v>3976369459.693511</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1579106709051791</v>
+        <v>0.1729549536029752</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02452775445239061</v>
+        <v>0.02284552437210497</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>35</v>
+      </c>
+      <c r="J82" t="n">
+        <v>59</v>
+      </c>
+      <c r="K82" t="n">
+        <v>158.8309971276606</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2207511713.178662</v>
+        <v>2257430560.06953</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1301346804972205</v>
+        <v>0.1373409780425531</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03098907095149976</v>
+        <v>0.03459349970038513</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2354434840.402524</v>
+        <v>1742108255.267319</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1138733532337251</v>
+        <v>0.08544649855629106</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03790349743383364</v>
+        <v>0.04545954408094871</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3037469790.385758</v>
+        <v>3549126462.705456</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1788279973387127</v>
+        <v>0.1275995321400729</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04251583112322607</v>
+        <v>0.03531647421928173</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>60</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2405840800.171802</v>
+        <v>2771418923.434049</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1269508515127342</v>
+        <v>0.134112356664214</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01913505071601194</v>
+        <v>0.02623429356582477</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1224011077.487449</v>
+        <v>928525441.5667409</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1742095641991784</v>
+        <v>0.1271856922278351</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02813545050781288</v>
+        <v>0.02698961668330417</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3699082737.911023</v>
+        <v>2663430395.429909</v>
       </c>
       <c r="F88" t="n">
-        <v>0.16730358361952</v>
+        <v>0.169928940512776</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02435153016652352</v>
+        <v>0.02691743695313198</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3268288632.209152</v>
+        <v>3334011165.374334</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1372798097084697</v>
+        <v>0.1213576169234739</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02987603470352998</v>
+        <v>0.02647596949371175</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>60</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2045065853.958694</v>
+        <v>1938175867.696725</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1270252415912762</v>
+        <v>0.126432732431164</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04956702836580024</v>
+        <v>0.03850122915631838</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1916072415.631463</v>
+        <v>1848551693.730745</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1387828855505389</v>
+        <v>0.1213068746004015</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05293423274883294</v>
+        <v>0.05501700327510626</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2861429527.148283</v>
+        <v>2307489062.658313</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07929227906061317</v>
+        <v>0.06817313986169103</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03160315656583825</v>
+        <v>0.04562287358047248</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3240645612.114536</v>
+        <v>3491064609.555056</v>
       </c>
       <c r="F93" t="n">
-        <v>0.123489586851839</v>
+        <v>0.08855024371529183</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03947875983299488</v>
+        <v>0.04147906985686959</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>60</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2403530449.544761</v>
+        <v>1645458104.960183</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1478746633596941</v>
+        <v>0.118729095338856</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03392279955850173</v>
+        <v>0.03976366969194439</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2848387109.361906</v>
+        <v>2956005375.516128</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1218395638247235</v>
+        <v>0.107617422743501</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04426271407346117</v>
+        <v>0.04301453838353159</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1520125508.0688</v>
+        <v>1652105359.067278</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0941382071768405</v>
+        <v>0.1054624502763385</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04642526010907732</v>
+        <v>0.02972804386556498</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5178516432.525564</v>
+        <v>3275184440.625629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.114040738330907</v>
+        <v>0.1159285056304618</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02237786299149248</v>
+        <v>0.01920138109124462</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>58</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2595653320.341801</v>
+        <v>3168155479.182251</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09261759944676622</v>
+        <v>0.1111138759886216</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02594711873499374</v>
+        <v>0.02647545756278312</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2463562043.985025</v>
+        <v>2823473406.64864</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1332882614846958</v>
+        <v>0.1127222063992384</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02456372694971098</v>
+        <v>0.02974058457155652</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4447267702.503049</v>
+        <v>3111648671.539089</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1523754526192077</v>
+        <v>0.1365266167411942</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02060990701113967</v>
+        <v>0.01752503883207771</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>59</v>
+      </c>
+      <c r="K100" t="n">
+        <v>86.52310307629349</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3266644510.549374</v>
+        <v>2410410525.865163</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2183976719225982</v>
+        <v>0.2010480292721826</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0566764728292935</v>
+        <v>0.03635592049669999</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
